--- a/data/trans_orig/EXP_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/EXP_TABACO-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en País Vasco</t>
+          <t>Exposición pasiva al tabaco en la vivienda en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en Andalucia</t>
+          <t>Exposición pasiva al tabaco en la vivienda en Andalucia (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3768,7 +3768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en C.Valenciana</t>
+          <t>Exposición pasiva al tabaco en la vivienda en C.Valenciana (tasa de respuesta: 93,57%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en Barcelona</t>
+          <t>Exposición pasiva al tabaco en la vivienda en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/EXP_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/EXP_TABACO-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4018</t>
+          <t>7680</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>4667</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6127</t>
+          <t>11469</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>11902</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3636</t>
+          <t>7793</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7400</t>
+          <t>17954</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>9253</t>
+          <t>19582</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>6935</t>
+          <t>14148</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>11990</t>
+          <t>26178</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>13,82%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38078</t>
+          <t>65324</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35969</t>
+          <t>61535</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39483</t>
+          <t>68337</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,46%</t>
+          <t>89,48%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,45%</t>
+          <t>84,29%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>64447</t>
+          <t>104447</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>62282</t>
+          <t>98395</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>66046</t>
+          <t>108556</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>84,57%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>102525</t>
+          <t>169771</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>99788</t>
+          <t>163175</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>104843</t>
+          <t>175205</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>89,66%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>92,53%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36662</t>
+          <t>72987</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32026</t>
+          <t>63071</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>42013</t>
+          <t>84001</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33083</t>
+          <t>63529</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28615</t>
+          <t>53477</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>37859</t>
+          <t>76041</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>69745</t>
+          <t>136515</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>63036</t>
+          <t>122828</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>77436</t>
+          <t>154209</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>16,79%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>191736</t>
+          <t>394211</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>186385</t>
+          <t>383197</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>196372</t>
+          <t>404127</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>83,95%</t>
+          <t>84,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>81,61%</t>
+          <t>82,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,98%</t>
+          <t>86,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>200538</t>
+          <t>387585</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>195762</t>
+          <t>375073</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>205006</t>
+          <t>397637</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>85,84%</t>
+          <t>85,92%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,79%</t>
+          <t>83,14%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>87,75%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>392274</t>
+          <t>781797</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>384583</t>
+          <t>764103</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>398983</t>
+          <t>795484</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>84,9%</t>
+          <t>85,13%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>83,24%</t>
+          <t>83,21%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>86,36%</t>
+          <t>86,62%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7843</t>
+          <t>21158</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5778</t>
+          <t>15488</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10410</t>
+          <t>29762</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14249</t>
+          <t>29450</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11170</t>
+          <t>22773</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17297</t>
+          <t>37956</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>22092</t>
+          <t>50608</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>18572</t>
+          <t>41470</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>26323</t>
+          <t>62736</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>13,69%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>73849</t>
+          <t>184722</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71282</t>
+          <t>176118</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75914</t>
+          <t>190392</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,4%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,26%</t>
+          <t>85,54%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93695</t>
+          <t>222904</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90647</t>
+          <t>214398</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>96774</t>
+          <t>229581</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,8%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>83,98%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,65%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>167543</t>
+          <t>407626</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>163312</t>
+          <t>395498</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>171063</t>
+          <t>416764</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>88,35%</t>
+          <t>88,96%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>86,31%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>90,21%</t>
+          <t>90,95%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>48523</t>
+          <t>101824</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43062</t>
+          <t>89490</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>54340</t>
+          <t>116897</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>52566</t>
+          <t>104880</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47220</t>
+          <t>91623</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>59144</t>
+          <t>120277</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>101089</t>
+          <t>206705</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>92573</t>
+          <t>187686</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>110253</t>
+          <t>227284</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>14,51%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>303663</t>
+          <t>644257</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>297846</t>
+          <t>629184</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>309124</t>
+          <t>656591</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>86,22%</t>
+          <t>86,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>84,57%</t>
+          <t>84,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>87,77%</t>
+          <t>88,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>358680</t>
+          <t>714938</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>352102</t>
+          <t>699541</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>364026</t>
+          <t>728195</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>87,22%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>85,33%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>88,52%</t>
+          <t>88,82%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>662343</t>
+          <t>1359194</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>653179</t>
+          <t>1338615</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>670859</t>
+          <t>1378213</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>86,8%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>85,56%</t>
+          <t>85,49%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>87,87%</t>
+          <t>88,01%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19051</t>
+          <t>19310</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38432</t>
+          <t>39365</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32894</t>
+          <t>32214</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>53549</t>
+          <t>53204</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>56561</t>
+          <t>56317</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>84882</t>
+          <t>84089</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>16,1%</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2465,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>157399</t>
+          <t>156466</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>176780</t>
+          <t>176521</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>80,37%</t>
+          <t>79,9%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>90,14%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>272974</t>
+          <t>273319</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>293629</t>
+          <t>294309</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2515,12 +2515,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,6%</t>
+          <t>83,71%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>89,93%</t>
+          <t>90,13%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2535,12 +2535,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>437472</t>
+          <t>438265</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>465793</t>
+          <t>466037</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2550,12 +2550,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>83,75%</t>
+          <t>83,9%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>89,17%</t>
+          <t>89,22%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>168873</t>
+          <t>167989</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>759497</t>
+          <t>847185</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>57,63%</t>
+          <t>64,29%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2730,12 +2730,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>104983</t>
+          <t>107978</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>230979</t>
+          <t>229742</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2745,12 +2745,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2765,12 +2765,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>346136</t>
+          <t>342813</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1144908</t>
+          <t>1183943</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2780,12 +2780,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>44,93%</t>
         </is>
       </c>
     </row>
@@ -2808,12 +2808,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>558345</t>
+          <t>470657</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1148969</t>
+          <t>1149853</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,37%</t>
+          <t>35,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>87,19%</t>
+          <t>87,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2843,12 +2843,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1086384</t>
+          <t>1087621</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1212380</t>
+          <t>1209385</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>82,47%</t>
+          <t>82,56%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,03%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1490297</t>
+          <t>1451262</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2289069</t>
+          <t>2292392</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>56,55%</t>
+          <t>55,07%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>86,86%</t>
+          <t>86,99%</t>
         </is>
       </c>
     </row>
@@ -3038,12 +3038,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35513</t>
+          <t>36292</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>68200</t>
+          <t>69187</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3073,12 +3073,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38244</t>
+          <t>37550</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>63620</t>
+          <t>63930</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3088,12 +3088,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>79191</t>
+          <t>79744</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>120784</t>
+          <t>120866</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
@@ -3151,12 +3151,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>363158</t>
+          <t>362171</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>395845</t>
+          <t>395066</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,19%</t>
+          <t>83,96%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3186,12 +3186,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>352908</t>
+          <t>352598</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>378284</t>
+          <t>378978</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>84,73%</t>
+          <t>84,65%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>727102</t>
+          <t>727020</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>768695</t>
+          <t>768142</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>90,66%</t>
+          <t>90,59%</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>242597</t>
+          <t>245237</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>962413</t>
+          <t>950786</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,48%</t>
+          <t>48,88%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>193143</t>
+          <t>192677</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>320234</t>
+          <t>322489</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>503006</t>
+          <t>505390</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1340548</t>
+          <t>1480684</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>36,97%</t>
         </is>
       </c>
     </row>
@@ -3494,12 +3494,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>982617</t>
+          <t>994244</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1702433</t>
+          <t>1699793</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>50,52%</t>
+          <t>51,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>87,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1740181</t>
+          <t>1737926</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1867272</t>
+          <t>1867738</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>84,46%</t>
+          <t>84,35%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>90,63%</t>
+          <t>90,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3564,12 +3564,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2664897</t>
+          <t>2524761</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3502439</t>
+          <t>3500055</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3579,12 +3579,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>66,53%</t>
+          <t>63,03%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>87,44%</t>
+          <t>87,38%</t>
         </is>
       </c>
     </row>
@@ -5574,12 +5574,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14284</t>
+          <t>13399</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28976</t>
+          <t>29350</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,22%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10434</t>
+          <t>11181</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23275</t>
+          <t>23179</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>27,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5644,12 +5644,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>28769</t>
+          <t>28019</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>48197</t>
+          <t>48655</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>30,3%</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5687,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46845</t>
+          <t>46471</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>61537</t>
+          <t>62422</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5702,12 +5702,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,78%</t>
+          <t>61,29%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,16%</t>
+          <t>82,33%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5722,12 +5722,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>61499</t>
+          <t>61595</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>74340</t>
+          <t>73593</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5737,12 +5737,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>72,54%</t>
+          <t>72,66%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>87,69%</t>
+          <t>86,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5757,12 +5757,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>112398</t>
+          <t>111940</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>131826</t>
+          <t>132576</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5772,12 +5772,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>69,99%</t>
+          <t>69,7%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>82,09%</t>
+          <t>82,55%</t>
         </is>
       </c>
     </row>
@@ -5917,12 +5917,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90890</t>
+          <t>89385</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>114299</t>
+          <t>112726</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5932,12 +5932,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,29%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>82945</t>
+          <t>81181</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>106447</t>
+          <t>103903</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5967,12 +5967,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5987,12 +5987,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>179147</t>
+          <t>178743</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>210992</t>
+          <t>211788</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -6002,12 +6002,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>30,73%</t>
+          <t>30,85%</t>
         </is>
       </c>
     </row>
@@ -6030,12 +6030,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>229038</t>
+          <t>230611</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>252447</t>
+          <t>253952</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6045,12 +6045,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>66,71%</t>
+          <t>67,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>73,53%</t>
+          <t>73,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -6065,12 +6065,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>236798</t>
+          <t>239342</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>260300</t>
+          <t>262064</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -6080,12 +6080,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>68,99%</t>
+          <t>69,73%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>75,84%</t>
+          <t>76,35%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -6100,12 +6100,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>475590</t>
+          <t>474794</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>507435</t>
+          <t>507839</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -6115,12 +6115,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>69,27%</t>
+          <t>69,15%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>73,91%</t>
+          <t>73,97%</t>
         </is>
       </c>
     </row>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>38514</t>
+          <t>38374</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>56642</t>
+          <t>55872</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>42843</t>
+          <t>42460</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>60962</t>
+          <t>60487</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6330,12 +6330,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>85781</t>
+          <t>85488</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>109964</t>
+          <t>110469</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>22,21%</t>
         </is>
       </c>
     </row>
@@ -6373,12 +6373,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>162231</t>
+          <t>163001</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>180359</t>
+          <t>180499</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6388,12 +6388,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,12%</t>
+          <t>74,47%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>82,47%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>217655</t>
+          <t>218130</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>235774</t>
+          <t>236157</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6423,12 +6423,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>78,12%</t>
+          <t>78,29%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>84,62%</t>
+          <t>84,76%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6443,12 +6443,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>387526</t>
+          <t>387021</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>411709</t>
+          <t>412002</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -6458,12 +6458,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>77,9%</t>
+          <t>77,79%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>82,76%</t>
+          <t>82,82%</t>
         </is>
       </c>
     </row>
@@ -6603,12 +6603,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>154407</t>
+          <t>153653</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>187132</t>
+          <t>186549</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,33%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -6638,12 +6638,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>145158</t>
+          <t>144285</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>177779</t>
+          <t>177253</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -6673,12 +6673,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>307391</t>
+          <t>306351</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>354929</t>
+          <t>352621</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>26,22%</t>
         </is>
       </c>
     </row>
@@ -6716,12 +6716,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>450899</t>
+          <t>451482</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>483624</t>
+          <t>484378</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>70,67%</t>
+          <t>70,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>75,8%</t>
+          <t>75,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>528857</t>
+          <t>529383</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>561478</t>
+          <t>562351</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>74,84%</t>
+          <t>74,92%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>79,46%</t>
+          <t>79,58%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>989738</t>
+          <t>992046</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1037276</t>
+          <t>1038316</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>73,6%</t>
+          <t>73,78%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>77,14%</t>
+          <t>77,22%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/EXP_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/EXP_TABACO-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Exposición pasiva al tabaco en la vivienda en Andalucia (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7680</t>
+          <t>30157</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4667</t>
+          <t>21499</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11469</t>
+          <t>43612</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11902</t>
+          <t>44868</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7793</t>
+          <t>34949</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17954</t>
+          <t>57560</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>19582</t>
+          <t>75025</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>14148</t>
+          <t>60707</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>26178</t>
+          <t>91662</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>15,9%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>65324</t>
+          <t>189260</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61535</t>
+          <t>175805</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>68337</t>
+          <t>197918</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,48%</t>
+          <t>86,26%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>80,12%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>90,2%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>498</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>104447</t>
+          <t>312258</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>98395</t>
+          <t>299566</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>108556</t>
+          <t>322177</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>87,44%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,57%</t>
+          <t>83,88%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>90,21%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>714</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>169771</t>
+          <t>501517</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>163175</t>
+          <t>484880</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>175205</t>
+          <t>515835</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>89,66%</t>
+          <t>86,99%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>84,1%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>92,53%</t>
+          <t>89,47%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>219417</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>219417</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>219417</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>563</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>357126</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>357126</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>357126</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>808</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>576542</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>576542</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>576542</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72987</t>
+          <t>159612</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63071</t>
+          <t>131972</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84001</t>
+          <t>192533</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>244</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63529</t>
+          <t>197809</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53477</t>
+          <t>174372</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>76041</t>
+          <t>222038</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>363</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>136515</t>
+          <t>357421</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>122828</t>
+          <t>318193</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>154209</t>
+          <t>397950</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>16,76%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>890</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>394211</t>
+          <t>1022106</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>383197</t>
+          <t>989185</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>404127</t>
+          <t>1049746</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,38%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>82,02%</t>
+          <t>83,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>86,5%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>1283</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>387585</t>
+          <t>995430</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>375073</t>
+          <t>971201</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>397637</t>
+          <t>1018867</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>85,92%</t>
+          <t>83,42%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,14%</t>
+          <t>81,39%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>85,39%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2312</t>
+          <t>2173</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>781797</t>
+          <t>2017536</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>764103</t>
+          <t>1977007</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>795484</t>
+          <t>2056764</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>85,13%</t>
+          <t>84,95%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>83,21%</t>
+          <t>83,24%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>86,62%</t>
+          <t>86,6%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1181718</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1181718</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1181718</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>1527</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1193239</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1193239</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1193239</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2715</t>
+          <t>2536</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2374957</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2374957</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2374957</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21158</t>
+          <t>53517</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15488</t>
+          <t>38083</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29762</t>
+          <t>72267</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29450</t>
+          <t>53571</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22773</t>
+          <t>41433</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37956</t>
+          <t>68276</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>106</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>50608</t>
+          <t>107088</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>41470</t>
+          <t>86557</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>62736</t>
+          <t>130196</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>13,8%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>415</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>184722</t>
+          <t>423370</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>176118</t>
+          <t>404620</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>190392</t>
+          <t>438804</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,72%</t>
+          <t>88,78%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,54%</t>
+          <t>84,85%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>92,01%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>561</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>222904</t>
+          <t>412918</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>214398</t>
+          <t>398213</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>229581</t>
+          <t>425056</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>88,52%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>84,96%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>90,98%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1038</t>
+          <t>976</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>407626</t>
+          <t>836287</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>395498</t>
+          <t>813179</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>416764</t>
+          <t>856818</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>88,96%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>86,31%</t>
+          <t>86,2%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>90,95%</t>
+          <t>90,82%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>457</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>476887</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>476887</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>476887</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>625</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>466489</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>466489</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>466489</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>943375</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>943375</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>943375</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>101824</t>
+          <t>243286</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89490</t>
+          <t>211313</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>116897</t>
+          <t>284364</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>373</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>104880</t>
+          <t>296248</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91623</t>
+          <t>265322</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>120277</t>
+          <t>328430</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>563</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>206705</t>
+          <t>539534</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>187686</t>
+          <t>497140</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>227284</t>
+          <t>590625</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>15,16%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>644257</t>
+          <t>1634735</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>629184</t>
+          <t>1593657</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>656591</t>
+          <t>1666708</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>86,35%</t>
+          <t>87,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>84,33%</t>
+          <t>84,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>88,01%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2140</t>
+          <t>2342</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>714938</t>
+          <t>1720606</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>699541</t>
+          <t>1688424</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>728195</t>
+          <t>1751532</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>87,21%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>85,33%</t>
+          <t>83,72%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>88,82%</t>
+          <t>86,84%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>3946</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1359194</t>
+          <t>3355341</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1338615</t>
+          <t>3304250</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1378213</t>
+          <t>3397735</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>86,8%</t>
+          <t>86,15%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>85,49%</t>
+          <t>84,84%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>88,01%</t>
+          <t>87,24%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2089</t>
+          <t>1711</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>1878021</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>1878021</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>1878021</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>2715</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2016854</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2016854</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2016854</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4532</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>3894875</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>3894875</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>3894875</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en Andalucia (tasa de respuesta: 99,87%)</t>
+          <t>Exposición pasiva al tabaco en la vivienda en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2342,107 +2342,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27693</t>
+          <t>20768</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19310</t>
+          <t>13399</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39365</t>
+          <t>29350</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>42038</t>
+          <t>16266</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32214</t>
+          <t>11181</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>53204</t>
+          <t>23179</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>27,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>69731</t>
+          <t>37034</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>56317</t>
+          <t>28019</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>84089</t>
+          <t>48655</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>30,3%</t>
         </is>
       </c>
     </row>
@@ -2455,107 +2455,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>168138</t>
+          <t>55053</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>156466</t>
+          <t>46471</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>176521</t>
+          <t>62422</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,86%</t>
+          <t>72,61%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,9%</t>
+          <t>61,29%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>82,33%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>186</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>284485</t>
+          <t>68508</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>273319</t>
+          <t>61595</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>294309</t>
+          <t>73593</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,13%</t>
+          <t>80,81%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,71%</t>
+          <t>72,66%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>90,13%</t>
+          <t>86,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>301</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>452623</t>
+          <t>123561</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>438265</t>
+          <t>111940</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>466037</t>
+          <t>132576</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>86,65%</t>
+          <t>76,94%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>83,9%</t>
+          <t>69,7%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>89,22%</t>
+          <t>82,55%</t>
         </is>
       </c>
     </row>
@@ -2568,22 +2568,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>195831</t>
+          <t>75821</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>195831</t>
+          <t>75821</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>195831</t>
+          <t>75821</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2603,22 +2603,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>231</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>326523</t>
+          <t>84774</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>326523</t>
+          <t>84774</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>326523</t>
+          <t>84774</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2638,22 +2638,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>391</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>522354</t>
+          <t>160595</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>522354</t>
+          <t>160595</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>522354</t>
+          <t>160595</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2685,107 +2685,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>392352</t>
+          <t>101713</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>167989</t>
+          <t>89385</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>847185</t>
+          <t>112726</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>64,29%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>183161</t>
+          <t>93689</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>107978</t>
+          <t>81181</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>229742</t>
+          <t>103903</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>27,3%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>434</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>575513</t>
+          <t>195402</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>342813</t>
+          <t>178743</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1183943</t>
+          <t>211788</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>44,93%</t>
+          <t>30,85%</t>
         </is>
       </c>
     </row>
@@ -2798,107 +2798,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>537</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>925490</t>
+          <t>241624</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>470657</t>
+          <t>230611</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1149853</t>
+          <t>253952</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>70,23%</t>
+          <t>70,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>67,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>87,25%</t>
+          <t>73,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1283</t>
+          <t>570</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1134202</t>
+          <t>249556</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1087621</t>
+          <t>239342</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1209385</t>
+          <t>262064</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>86,1%</t>
+          <t>72,7%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>82,56%</t>
+          <t>69,73%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>76,35%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2173</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2059692</t>
+          <t>491180</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1451262</t>
+          <t>474794</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2292392</t>
+          <t>507839</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>78,16%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>55,07%</t>
+          <t>69,15%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>86,99%</t>
+          <t>73,97%</t>
         </is>
       </c>
     </row>
@@ -2911,22 +2911,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>760</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1317842</t>
+          <t>343337</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1317842</t>
+          <t>343337</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1317842</t>
+          <t>343337</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2946,22 +2946,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>781</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1317363</t>
+          <t>343245</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1317363</t>
+          <t>343245</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1317363</t>
+          <t>343245</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2981,22 +2981,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>1541</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2635205</t>
+          <t>686582</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2635205</t>
+          <t>686582</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2635205</t>
+          <t>686582</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3028,107 +3028,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50410</t>
+          <t>46703</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36292</t>
+          <t>38374</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>69187</t>
+          <t>55872</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>137</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>49276</t>
+          <t>51061</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>37550</t>
+          <t>42460</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>63930</t>
+          <t>60487</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>250</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>99687</t>
+          <t>97764</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>79744</t>
+          <t>85488</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>120866</t>
+          <t>110469</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>22,21%</t>
         </is>
       </c>
     </row>
@@ -3141,107 +3141,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>511</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>380948</t>
+          <t>172170</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>362171</t>
+          <t>163001</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>395066</t>
+          <t>180499</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,31%</t>
+          <t>78,66%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,96%</t>
+          <t>74,47%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,59%</t>
+          <t>82,47%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>367252</t>
+          <t>227556</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>352598</t>
+          <t>218130</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>378978</t>
+          <t>236157</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>81,67%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>84,65%</t>
+          <t>78,29%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>90,98%</t>
+          <t>84,76%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>748199</t>
+          <t>399726</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>727020</t>
+          <t>387021</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>768142</t>
+          <t>412002</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>88,24%</t>
+          <t>80,35%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>85,75%</t>
+          <t>77,79%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>90,59%</t>
+          <t>82,82%</t>
         </is>
       </c>
     </row>
@@ -3254,22 +3254,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>624</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>431358</t>
+          <t>218873</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>431358</t>
+          <t>218873</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>431358</t>
+          <t>218873</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3289,22 +3289,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>750</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>416528</t>
+          <t>278617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>416528</t>
+          <t>278617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>416528</t>
+          <t>278617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3324,22 +3324,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1082</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>847886</t>
+          <t>497490</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>847886</t>
+          <t>497490</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>847886</t>
+          <t>497490</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3371,107 +3371,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>381</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>470455</t>
+          <t>169184</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>245237</t>
+          <t>153653</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>950786</t>
+          <t>186549</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,88%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>274475</t>
+          <t>161016</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>192677</t>
+          <t>144285</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>322489</t>
+          <t>177253</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>774</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>744930</t>
+          <t>330200</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>505390</t>
+          <t>306351</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1480684</t>
+          <t>352621</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>26,22%</t>
         </is>
       </c>
     </row>
@@ -3484,107 +3484,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1521</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1474575</t>
+          <t>468847</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>994244</t>
+          <t>451482</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1699793</t>
+          <t>484378</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>75,81%</t>
+          <t>73,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>51,12%</t>
+          <t>70,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>87,39%</t>
+          <t>75,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2342</t>
+          <t>1369</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1785940</t>
+          <t>545620</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1737926</t>
+          <t>529383</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1867738</t>
+          <t>562351</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>86,68%</t>
+          <t>77,21%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>84,35%</t>
+          <t>74,92%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>90,65%</t>
+          <t>79,58%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>3863</t>
+          <t>2532</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>3260515</t>
+          <t>1014467</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2524761</t>
+          <t>992046</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3500055</t>
+          <t>1038316</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>81,4%</t>
+          <t>75,44%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>63,03%</t>
+          <t>73,78%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>77,22%</t>
         </is>
       </c>
     </row>
@@ -3597,22 +3597,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1711</t>
+          <t>1544</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1945030</t>
+          <t>638031</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1945030</t>
+          <t>638031</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1945030</t>
+          <t>638031</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3632,22 +3632,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2715</t>
+          <t>1762</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2060415</t>
+          <t>706636</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2060415</t>
+          <t>706636</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2060415</t>
+          <t>706636</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3667,22 +3667,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>3306</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4005445</t>
+          <t>1344667</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4005445</t>
+          <t>1344667</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4005445</t>
+          <t>1344667</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda en Barcelona (tasa de respuesta: 100,0%)</t>
+          <t>Exposición pasiva al tabaco en la vivienda en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5564,107 +5564,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20768</t>
+          <t>7680</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13399</t>
+          <t>4667</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29350</t>
+          <t>11469</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16266</t>
+          <t>11902</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11181</t>
+          <t>7793</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23179</t>
+          <t>17954</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>37034</t>
+          <t>19582</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>28019</t>
+          <t>14148</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>48655</t>
+          <t>26178</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>13,82%</t>
         </is>
       </c>
     </row>
@@ -5677,107 +5677,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>213</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55053</t>
+          <t>65324</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46471</t>
+          <t>61535</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62422</t>
+          <t>68337</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>72,61%</t>
+          <t>89,48%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,29%</t>
+          <t>84,29%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,33%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>383</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>68508</t>
+          <t>104447</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>61595</t>
+          <t>98395</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>73593</t>
+          <t>108556</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>80,81%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>72,66%</t>
+          <t>84,57%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>86,81%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>596</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>123561</t>
+          <t>169771</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>111940</t>
+          <t>163175</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>132576</t>
+          <t>175205</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>89,66%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>69,7%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>82,55%</t>
+          <t>92,53%</t>
         </is>
       </c>
     </row>
@@ -5790,22 +5790,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>75821</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>75821</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>75821</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5825,22 +5825,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>415</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>84774</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>84774</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>84774</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5860,22 +5860,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>652</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>160595</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>160595</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>160595</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5907,107 +5907,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>101713</t>
+          <t>72987</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89385</t>
+          <t>63071</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>112726</t>
+          <t>84001</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,03%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>192</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93689</t>
+          <t>63529</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>81181</t>
+          <t>53477</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>103903</t>
+          <t>76041</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>403</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>195402</t>
+          <t>136515</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>178743</t>
+          <t>122828</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>211788</t>
+          <t>154209</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>26,03%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>16,79%</t>
         </is>
       </c>
     </row>
@@ -6020,107 +6020,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>241624</t>
+          <t>394211</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>230611</t>
+          <t>383197</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>253952</t>
+          <t>404127</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>70,38%</t>
+          <t>84,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>67,17%</t>
+          <t>82,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>73,97%</t>
+          <t>86,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>1170</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>249556</t>
+          <t>387585</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>239342</t>
+          <t>375073</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>262064</t>
+          <t>397637</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>72,7%</t>
+          <t>85,92%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>69,73%</t>
+          <t>83,14%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>76,35%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>2312</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>491180</t>
+          <t>781797</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>474794</t>
+          <t>764103</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>507839</t>
+          <t>795484</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>71,54%</t>
+          <t>85,13%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>69,15%</t>
+          <t>83,21%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>73,97%</t>
+          <t>86,62%</t>
         </is>
       </c>
     </row>
@@ -6133,22 +6133,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>343337</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>343337</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>343337</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6168,22 +6168,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>343245</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>343245</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>343245</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6203,22 +6203,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>2715</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>686582</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>686582</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>686582</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6250,107 +6250,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46703</t>
+          <t>21158</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>38374</t>
+          <t>15488</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>55872</t>
+          <t>29762</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>51061</t>
+          <t>29450</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>42460</t>
+          <t>22773</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>60487</t>
+          <t>37956</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>127</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>97764</t>
+          <t>50608</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>85488</t>
+          <t>41470</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>110469</t>
+          <t>62736</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>13,69%</t>
         </is>
       </c>
     </row>
@@ -6363,107 +6363,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>172170</t>
+          <t>184722</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>163001</t>
+          <t>176118</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>180499</t>
+          <t>190392</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,66%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,47%</t>
+          <t>85,54%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,47%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>587</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>227556</t>
+          <t>222904</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>218130</t>
+          <t>214398</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>236157</t>
+          <t>229581</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>81,67%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>78,29%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>84,76%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1038</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>399726</t>
+          <t>407626</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>387021</t>
+          <t>395498</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>412002</t>
+          <t>416764</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>80,35%</t>
+          <t>88,96%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>77,79%</t>
+          <t>86,31%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>82,82%</t>
+          <t>90,95%</t>
         </is>
       </c>
     </row>
@@ -6476,22 +6476,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>499</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>218873</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>218873</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>218873</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6511,22 +6511,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>278617</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>278617</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>278617</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6546,22 +6546,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>497490</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>497490</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>497490</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -6593,107 +6593,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>169184</t>
+          <t>101824</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>153653</t>
+          <t>89490</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>186549</t>
+          <t>116897</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>303</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>161016</t>
+          <t>104880</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>144285</t>
+          <t>91623</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>177253</t>
+          <t>120277</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>586</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>330200</t>
+          <t>206705</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>306351</t>
+          <t>187686</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>352621</t>
+          <t>227284</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>14,51%</t>
         </is>
       </c>
     </row>
@@ -6706,107 +6706,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>468847</t>
+          <t>644257</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>451482</t>
+          <t>629184</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>484378</t>
+          <t>656591</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>73,48%</t>
+          <t>86,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>70,76%</t>
+          <t>84,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>75,92%</t>
+          <t>88,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1369</t>
+          <t>2140</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>545620</t>
+          <t>714938</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>529383</t>
+          <t>699541</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>562351</t>
+          <t>728195</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>77,21%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>74,92%</t>
+          <t>85,33%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>79,58%</t>
+          <t>88,82%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>2532</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1014467</t>
+          <t>1359194</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>992046</t>
+          <t>1338615</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1038316</t>
+          <t>1378213</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>75,44%</t>
+          <t>86,8%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>73,78%</t>
+          <t>85,49%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>77,22%</t>
+          <t>88,01%</t>
         </is>
       </c>
     </row>
@@ -6819,22 +6819,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1544</t>
+          <t>2089</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>638031</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>638031</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>638031</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6854,22 +6854,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1762</t>
+          <t>2443</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>706636</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>706636</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>706636</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6889,22 +6889,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>3306</t>
+          <t>4532</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1344667</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1344667</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1344667</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
